--- a/documents/Anforderungsartefakte/User Stories.xlsx
+++ b/documents/Anforderungsartefakte/User Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Als Student soll ich mich mit meiner Linux-Kennung einloggen können.</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Als User möchte ich eine auf Smartphones angepasste Ansicht des Systems haben.</t>
-  </si>
-  <si>
-    <t>Kommentar David 25.04.: weitere User Stories werden aus Product Backlog hierhin kopiert wenn das fertig ist, weil dieser Teil in Übungsblatt 2 vor Übungsblatt 1 bearbeitet wurde</t>
   </si>
   <si>
     <t>Nr.</t>
@@ -413,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,10 +424,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -527,11 +524,6 @@
       </c>
       <c r="B13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
